--- a/Seat polling.xlsx
+++ b/Seat polling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\danny\source\repos\Polling Analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7043D6-693B-49EF-8E46-D8EF629B0FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70176AB-ED35-4EAD-BDD0-2EE64D371788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="3990" windowWidth="19800" windowHeight="14055" xr2:uid="{B82EC986-33BA-440A-9708-55ADFDC40C5B}"/>
+    <workbookView xWindow="3285" yWindow="3915" windowWidth="28800" windowHeight="15435" xr2:uid="{B82EC986-33BA-440A-9708-55ADFDC40C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -178,11 +178,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E10:E11"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
